--- a/Input_files/cpt_data_files/RWE-Taiwan/SCPG-combined.xlsx
+++ b/Input_files/cpt_data_files/RWE-Taiwan/SCPG-combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc\PycharmProjects\SI_processing_automation\Input_files\cpt_data_files\RWE-Taiwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22FB912-3448-41B6-8438-447A67A3DC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2EACE0-128E-4442-9A8F-EC7C5E7CDBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16095" yWindow="1875" windowWidth="18900" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCPG" sheetId="3" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="122">
   <si>
     <t>HEADING</t>
   </si>
@@ -316,6 +316,126 @@
   </si>
   <si>
     <t>2022-10-06T09:41</t>
+  </si>
+  <si>
+    <t>BH02-HSINCHU</t>
+  </si>
+  <si>
+    <t>2022-02-06T21:53</t>
+  </si>
+  <si>
+    <t>2022-02-06T22:19</t>
+  </si>
+  <si>
+    <t>2022-03-06T00:34</t>
+  </si>
+  <si>
+    <t>2022-03-06T02:40</t>
+  </si>
+  <si>
+    <t>2022-03-06T04:15</t>
+  </si>
+  <si>
+    <t>2022-03-06T06:00</t>
+  </si>
+  <si>
+    <t>2022-03-06T08:08</t>
+  </si>
+  <si>
+    <t>BH05-HSINCHU</t>
+  </si>
+  <si>
+    <t>2022-07-06T18:18</t>
+  </si>
+  <si>
+    <t>2022-07-06T20:09</t>
+  </si>
+  <si>
+    <t>2022-07-06T22:04</t>
+  </si>
+  <si>
+    <t>2022-07-06T23:33</t>
+  </si>
+  <si>
+    <t>2022-08-06T02:05</t>
+  </si>
+  <si>
+    <t>2022-08-06T04:36</t>
+  </si>
+  <si>
+    <t>2022-08-06T06:45</t>
+  </si>
+  <si>
+    <t>BH06-HSINCHU</t>
+  </si>
+  <si>
+    <t>2022-12-05T04:10</t>
+  </si>
+  <si>
+    <t>2022-12-05T04:42</t>
+  </si>
+  <si>
+    <t>2022-12-05T06:38</t>
+  </si>
+  <si>
+    <t>2022-12-05T08:15</t>
+  </si>
+  <si>
+    <t>2022-12-05T09:56</t>
+  </si>
+  <si>
+    <t>2022-12-05T12:01</t>
+  </si>
+  <si>
+    <t>2022-12-05T13:30</t>
+  </si>
+  <si>
+    <t>BH07-HSINCHU</t>
+  </si>
+  <si>
+    <t>2022-01-06T03:37</t>
+  </si>
+  <si>
+    <t>2022-01-06T04:18</t>
+  </si>
+  <si>
+    <t>2022-01-06T05:55</t>
+  </si>
+  <si>
+    <t>2022-01-06T08:13</t>
+  </si>
+  <si>
+    <t>2022-01-06T09:43</t>
+  </si>
+  <si>
+    <t>2022-01-06T11:20</t>
+  </si>
+  <si>
+    <t>2022-01-06T13:11</t>
+  </si>
+  <si>
+    <t>BH08-HSINCHU</t>
+  </si>
+  <si>
+    <t>2022-05-31T09:00</t>
+  </si>
+  <si>
+    <t>2022-05-31T10:33</t>
+  </si>
+  <si>
+    <t>2022-05-31T12:18</t>
+  </si>
+  <si>
+    <t>2022-05-31T14:32</t>
+  </si>
+  <si>
+    <t>2022-05-31T16:08</t>
+  </si>
+  <si>
+    <t>2022-05-31T17:54</t>
+  </si>
+  <si>
+    <t>2022-05-31T19:31</t>
   </si>
 </sst>
 </file>
@@ -655,10 +775,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AW23"/>
+  <dimension ref="A1:AW58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A23"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,8 +2695,2809 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24">
+        <v>191112</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24">
+        <v>0.8</v>
+      </c>
+      <c r="S24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB24">
+        <v>0.999</v>
+      </c>
+      <c r="AC24">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="AI24">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT24">
+        <v>80</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25">
+        <v>191112</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" t="s">
+        <v>50</v>
+      </c>
+      <c r="R25">
+        <v>0.8</v>
+      </c>
+      <c r="S25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U25" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y25">
+        <v>2.7</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB25">
+        <v>1.018</v>
+      </c>
+      <c r="AC25">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0.876</v>
+      </c>
+      <c r="AI25">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT25">
+        <v>80</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26">
+        <v>191112</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26">
+        <v>0.8</v>
+      </c>
+      <c r="S26">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y26">
+        <v>7.5</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB26">
+        <v>1.01</v>
+      </c>
+      <c r="AC26">
+        <v>0.309</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0.876</v>
+      </c>
+      <c r="AI26">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT26">
+        <v>80</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27">
+        <v>191112</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R27">
+        <v>0.8</v>
+      </c>
+      <c r="S27">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U27" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y27">
+        <v>12.2</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB27">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="AC27">
+        <v>0.3</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0.97</v>
+      </c>
+      <c r="AI27">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT27">
+        <v>80</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28">
+        <v>191112</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" t="s">
+        <v>50</v>
+      </c>
+      <c r="R28">
+        <v>0.8</v>
+      </c>
+      <c r="S28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U28" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y28">
+        <v>17</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB28">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="AC28">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="AI28">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT28">
+        <v>80</v>
+      </c>
+      <c r="AW28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29">
+        <v>191112</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29">
+        <v>0.8</v>
+      </c>
+      <c r="S29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y29">
+        <v>21.8</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB29">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="AC29">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>1.153</v>
+      </c>
+      <c r="AI29">
+        <v>-0.02</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT29">
+        <v>80</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30">
+        <v>191112</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" t="s">
+        <v>50</v>
+      </c>
+      <c r="R30">
+        <v>0.8</v>
+      </c>
+      <c r="S30">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U30" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y30">
+        <v>26.6</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB30">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="AC30">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="AI30">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT30">
+        <v>80</v>
+      </c>
+      <c r="AW30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31">
+        <v>200140</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31">
+        <v>0.8</v>
+      </c>
+      <c r="S31">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U31" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB31">
+        <v>1.381</v>
+      </c>
+      <c r="AC31">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AI31">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT31">
+        <v>80</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32">
+        <v>200140</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R32">
+        <v>0.8</v>
+      </c>
+      <c r="S32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U32" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y32">
+        <v>4.8</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB32">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="AC32">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="AI32">
+        <v>-0.02</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT32">
+        <v>80</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33">
+        <v>200140</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" t="s">
+        <v>50</v>
+      </c>
+      <c r="R33">
+        <v>0.8</v>
+      </c>
+      <c r="S33">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U33" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y33">
+        <v>9.5</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB33">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="AC33">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AI33">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT33">
+        <v>80</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34">
+        <v>200140</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" t="s">
+        <v>50</v>
+      </c>
+      <c r="R34">
+        <v>0.8</v>
+      </c>
+      <c r="S34">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y34">
+        <v>14.2</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB34">
+        <v>1.405</v>
+      </c>
+      <c r="AC34">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0.88</v>
+      </c>
+      <c r="AI34">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT34">
+        <v>80</v>
+      </c>
+      <c r="AW34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35">
+        <v>200140</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" t="s">
+        <v>50</v>
+      </c>
+      <c r="R35">
+        <v>0.8</v>
+      </c>
+      <c r="S35">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U35" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y35">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB35">
+        <v>1.458</v>
+      </c>
+      <c r="AC35">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="AI35">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT35">
+        <v>80</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36">
+        <v>200140</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36" t="s">
+        <v>50</v>
+      </c>
+      <c r="R36">
+        <v>0.8</v>
+      </c>
+      <c r="S36">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U36" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y36">
+        <v>23.7</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB36">
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="AC36">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>1.05</v>
+      </c>
+      <c r="AI36">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT36">
+        <v>80</v>
+      </c>
+      <c r="AW36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37">
+        <v>200140</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" t="s">
+        <v>50</v>
+      </c>
+      <c r="R37">
+        <v>0.8</v>
+      </c>
+      <c r="S37">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U37" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y37">
+        <v>28.4</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB37">
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="AC37">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AI37">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT37">
+        <v>80</v>
+      </c>
+      <c r="AW37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38">
+        <v>200212</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" t="s">
+        <v>50</v>
+      </c>
+      <c r="R38">
+        <v>0.81</v>
+      </c>
+      <c r="S38">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U38" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB38">
+        <v>0.998</v>
+      </c>
+      <c r="AC38">
+        <v>0.435</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AI38">
+        <v>-1E-3</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT38">
+        <v>80</v>
+      </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39">
+        <v>200212</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" t="s">
+        <v>50</v>
+      </c>
+      <c r="R39">
+        <v>0.81</v>
+      </c>
+      <c r="S39">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U39" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y39">
+        <v>2.7</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB39">
+        <v>1.036</v>
+      </c>
+      <c r="AC39">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="AI39">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT39">
+        <v>80</v>
+      </c>
+      <c r="AW39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40">
+        <v>200212</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" t="s">
+        <v>49</v>
+      </c>
+      <c r="P40" t="s">
+        <v>50</v>
+      </c>
+      <c r="R40">
+        <v>0.81</v>
+      </c>
+      <c r="S40">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U40" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y40">
+        <v>7.3</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB40">
+        <v>1.026</v>
+      </c>
+      <c r="AC40">
+        <v>0.433</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AI40">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT40">
+        <v>80</v>
+      </c>
+      <c r="AW40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41">
+        <v>200212</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" t="s">
+        <v>50</v>
+      </c>
+      <c r="R41">
+        <v>0.81</v>
+      </c>
+      <c r="S41">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U41" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y41">
+        <v>12</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB41">
+        <v>1.097</v>
+      </c>
+      <c r="AC41">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="AI41">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT41">
+        <v>80</v>
+      </c>
+      <c r="AW41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42">
+        <v>200212</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" t="s">
+        <v>49</v>
+      </c>
+      <c r="P42" t="s">
+        <v>50</v>
+      </c>
+      <c r="R42">
+        <v>0.81</v>
+      </c>
+      <c r="S42">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U42" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y42">
+        <v>16.8</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB42">
+        <v>1.155</v>
+      </c>
+      <c r="AC42">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0.875</v>
+      </c>
+      <c r="AI42">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT42">
+        <v>80</v>
+      </c>
+      <c r="AW42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43">
+        <v>200212</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O43" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" t="s">
+        <v>50</v>
+      </c>
+      <c r="R43">
+        <v>0.81</v>
+      </c>
+      <c r="S43">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U43" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y43">
+        <v>21.5</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB43">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="AC43">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0.96</v>
+      </c>
+      <c r="AI43">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT43">
+        <v>80</v>
+      </c>
+      <c r="AW43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44">
+        <v>200212</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>48</v>
+      </c>
+      <c r="O44" t="s">
+        <v>49</v>
+      </c>
+      <c r="P44" t="s">
+        <v>50</v>
+      </c>
+      <c r="R44">
+        <v>0.81</v>
+      </c>
+      <c r="S44">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U44" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y44">
+        <v>26.2</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB44">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="AC44">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AI44">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT44">
+        <v>80</v>
+      </c>
+      <c r="AW44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45">
+        <v>200214</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45" t="s">
+        <v>49</v>
+      </c>
+      <c r="P45" t="s">
+        <v>50</v>
+      </c>
+      <c r="R45">
+        <v>0.79</v>
+      </c>
+      <c r="S45">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U45" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB45">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="AC45">
+        <v>0.59</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AI45">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT45">
+        <v>80</v>
+      </c>
+      <c r="AW45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46">
+        <v>200214</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>48</v>
+      </c>
+      <c r="O46" t="s">
+        <v>49</v>
+      </c>
+      <c r="P46" t="s">
+        <v>50</v>
+      </c>
+      <c r="R46">
+        <v>0.79</v>
+      </c>
+      <c r="S46">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U46" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y46">
+        <v>2.8</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB46">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="AC46">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0.876</v>
+      </c>
+      <c r="AI46">
+        <v>-0.02</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT46">
+        <v>80</v>
+      </c>
+      <c r="AW46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47">
+        <v>200214</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
+        <v>48</v>
+      </c>
+      <c r="O47" t="s">
+        <v>49</v>
+      </c>
+      <c r="P47" t="s">
+        <v>50</v>
+      </c>
+      <c r="R47">
+        <v>0.79</v>
+      </c>
+      <c r="S47">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U47" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y47">
+        <v>7.6</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB47">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="AC47">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="AI47">
+        <v>-0.02</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT47">
+        <v>80</v>
+      </c>
+      <c r="AW47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48">
+        <v>200214</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+      <c r="H48">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>48</v>
+      </c>
+      <c r="O48" t="s">
+        <v>49</v>
+      </c>
+      <c r="P48" t="s">
+        <v>50</v>
+      </c>
+      <c r="R48">
+        <v>0.79</v>
+      </c>
+      <c r="S48">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U48" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y48">
+        <v>12.4</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB48">
+        <v>1.387</v>
+      </c>
+      <c r="AC48">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="AI48">
+        <v>-0.02</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT48">
+        <v>80</v>
+      </c>
+      <c r="AW48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49">
+        <v>200214</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>48</v>
+      </c>
+      <c r="O49" t="s">
+        <v>49</v>
+      </c>
+      <c r="P49" t="s">
+        <v>50</v>
+      </c>
+      <c r="R49">
+        <v>0.79</v>
+      </c>
+      <c r="S49">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U49" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y49">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB49">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="AC49">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="AI49">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT49">
+        <v>80</v>
+      </c>
+      <c r="AW49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50">
+        <v>200214</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="O50" t="s">
+        <v>49</v>
+      </c>
+      <c r="P50" t="s">
+        <v>50</v>
+      </c>
+      <c r="R50">
+        <v>0.79</v>
+      </c>
+      <c r="S50">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U50" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y50">
+        <v>21.5</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB50">
+        <v>1.5</v>
+      </c>
+      <c r="AC50">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="AI50">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT50">
+        <v>80</v>
+      </c>
+      <c r="AW50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51">
+        <v>200214</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" t="s">
+        <v>49</v>
+      </c>
+      <c r="P51" t="s">
+        <v>50</v>
+      </c>
+      <c r="R51">
+        <v>0.79</v>
+      </c>
+      <c r="S51">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U51" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y51">
+        <v>26.3</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB51">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="AC51">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>1.133</v>
+      </c>
+      <c r="AI51">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT51">
+        <v>80</v>
+      </c>
+      <c r="AW51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52">
+        <v>200141</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>48</v>
+      </c>
+      <c r="O52" t="s">
+        <v>49</v>
+      </c>
+      <c r="P52" t="s">
+        <v>50</v>
+      </c>
+      <c r="R52">
+        <v>0.83</v>
+      </c>
+      <c r="S52">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U52" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB52">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AC52">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="AI52">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT52">
+        <v>80</v>
+      </c>
+      <c r="AW52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53">
+        <v>200141</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>48</v>
+      </c>
+      <c r="O53" t="s">
+        <v>49</v>
+      </c>
+      <c r="P53" t="s">
+        <v>50</v>
+      </c>
+      <c r="R53">
+        <v>0.83</v>
+      </c>
+      <c r="S53">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U53" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y53">
+        <v>4.8</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB53">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="AC53">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AI53">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT53">
+        <v>80</v>
+      </c>
+      <c r="AW53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54">
+        <v>200141</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>48</v>
+      </c>
+      <c r="O54" t="s">
+        <v>49</v>
+      </c>
+      <c r="P54" t="s">
+        <v>50</v>
+      </c>
+      <c r="R54">
+        <v>0.83</v>
+      </c>
+      <c r="S54">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U54" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y54">
+        <v>9.6</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB54">
+        <v>0.96</v>
+      </c>
+      <c r="AC54">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="AI54">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT54">
+        <v>80</v>
+      </c>
+      <c r="AW54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55">
+        <v>200141</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>48</v>
+      </c>
+      <c r="O55" t="s">
+        <v>49</v>
+      </c>
+      <c r="P55" t="s">
+        <v>50</v>
+      </c>
+      <c r="R55">
+        <v>0.83</v>
+      </c>
+      <c r="S55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U55" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y55">
+        <v>14.4</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB55">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="AC55">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>1.03</v>
+      </c>
+      <c r="AI55">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT55">
+        <v>80</v>
+      </c>
+      <c r="AW55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56">
+        <v>200141</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>48</v>
+      </c>
+      <c r="O56" t="s">
+        <v>49</v>
+      </c>
+      <c r="P56" t="s">
+        <v>50</v>
+      </c>
+      <c r="R56">
+        <v>0.83</v>
+      </c>
+      <c r="S56">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U56" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y56">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB56">
+        <v>1.026</v>
+      </c>
+      <c r="AC56">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>1.048</v>
+      </c>
+      <c r="AI56">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT56">
+        <v>80</v>
+      </c>
+      <c r="AW56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57">
+        <v>200141</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>48</v>
+      </c>
+      <c r="O57" t="s">
+        <v>49</v>
+      </c>
+      <c r="P57" t="s">
+        <v>50</v>
+      </c>
+      <c r="R57">
+        <v>0.83</v>
+      </c>
+      <c r="S57">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U57" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y57">
+        <v>23.8</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB57">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="AC57">
+        <v>0.217</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="AI57">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT57">
+        <v>80</v>
+      </c>
+      <c r="AW57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58">
+        <v>200141</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>48</v>
+      </c>
+      <c r="O58" t="s">
+        <v>49</v>
+      </c>
+      <c r="P58" t="s">
+        <v>50</v>
+      </c>
+      <c r="R58">
+        <v>0.83</v>
+      </c>
+      <c r="S58">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U58" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y58">
+        <v>28.4</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB58">
+        <v>1.113</v>
+      </c>
+      <c r="AC58">
+        <v>0.218</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>1.133</v>
+      </c>
+      <c r="AI58">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT58">
+        <v>80</v>
+      </c>
+      <c r="AW58">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>